--- a/src/assets/tmp/tmp.xlsx
+++ b/src/assets/tmp/tmp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
   <si>
     <t>Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,14 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A reseanable guess is that it was established at</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiatz Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jiatz Month</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,42 +695,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The first day of tz month is winter solstice.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is the first day of the year by establish tz (建子) calendar system.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The relevance of more than five thousand years could be Eygpt.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What was the time for Adam and Eve dated. It is interested to be investigated,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asuming that the lineage is history.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(four cylinders)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Was it between 5000-6000y ago? Which day?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Did it happend in other time?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This calendar in four-cylinders of year, month, day and hour is circular.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>About four thousand years ago, the same year.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,6 +712,34 @@
   </si>
   <si>
     <t>(The remark is the same. This is the first time the West and the East want to understand each other.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Jiatz Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Was it between 5000-6000y ago? Which day?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// A possible guess is that it was established at Winter Solstice by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This calendar in four cylinders of year, month, day and hour is circular.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Is it an Epoch? The relevance of more than five thousand years could be Eygpt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asuming that the lineage is the written history.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// (Sorry, I wanted to give the above up but I leave it for ideas.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +752,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -833,6 +825,36 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -859,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +940,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,11 +1551,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175602688"/>
-        <c:axId val="175612672"/>
+        <c:axId val="111362432"/>
+        <c:axId val="111363968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175602688"/>
+        <c:axId val="111362432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1519,13 +1568,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175612672"/>
+        <c:crossAx val="111363968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175612672"/>
+        <c:axId val="111363968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1602,7 +1651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175602688"/>
+        <c:crossAx val="111362432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1643,15 +1692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2575,24 +2624,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7">
       <c r="C1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="C2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="C3" t="s">
         <v>62</v>
       </c>
@@ -2600,7 +2649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="8" customFormat="1">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2608,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2622,7 +2671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2636,7 +2685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2647,7 +2696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2661,7 +2710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2675,7 +2724,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2686,7 +2735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2697,7 +2746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2708,7 +2757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2719,7 +2768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2730,7 +2779,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2741,7 +2790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2752,7 +2801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2763,7 +2812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2774,7 +2823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2785,7 +2834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>16</v>
       </c>
@@ -2796,7 +2845,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>17</v>
       </c>
@@ -2807,7 +2856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>18</v>
       </c>
@@ -2818,7 +2867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>19</v>
       </c>
@@ -2829,7 +2878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>20</v>
       </c>
@@ -2840,7 +2889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>21</v>
       </c>
@@ -2851,7 +2900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>22</v>
       </c>
@@ -2862,7 +2911,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>23</v>
       </c>
@@ -2873,7 +2922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>24</v>
       </c>
@@ -2881,7 +2930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>25</v>
       </c>
@@ -2889,7 +2938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>26</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>27</v>
       </c>
@@ -2905,7 +2954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>28</v>
       </c>
@@ -2913,7 +2962,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>29</v>
       </c>
@@ -2921,7 +2970,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7">
       <c r="B34">
         <v>30</v>
       </c>
@@ -2932,7 +2981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7">
       <c r="B35">
         <v>31</v>
       </c>
@@ -2943,7 +2992,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7">
       <c r="B36">
         <v>32</v>
       </c>
@@ -2954,7 +3003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7">
       <c r="B37">
         <v>33</v>
       </c>
@@ -2962,7 +3011,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7">
       <c r="B38">
         <v>34</v>
       </c>
@@ -2970,7 +3019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7">
       <c r="B39">
         <v>35</v>
       </c>
@@ -2978,7 +3027,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7">
       <c r="B40">
         <v>36</v>
       </c>
@@ -2986,7 +3035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7">
       <c r="B41">
         <v>37</v>
       </c>
@@ -2994,7 +3043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7">
       <c r="B42">
         <v>38</v>
       </c>
@@ -3002,7 +3051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7">
       <c r="B43">
         <v>39</v>
       </c>
@@ -3010,7 +3059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7">
       <c r="B44">
         <v>40</v>
       </c>
@@ -3021,7 +3070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7">
       <c r="B45">
         <v>50</v>
       </c>
@@ -3029,7 +3078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7">
       <c r="B46">
         <v>60</v>
       </c>
@@ -3037,7 +3086,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7">
       <c r="B47">
         <v>70</v>
       </c>
@@ -3045,7 +3094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7">
       <c r="B48">
         <v>80</v>
       </c>
@@ -3053,7 +3102,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>90</v>
       </c>
@@ -3061,7 +3110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>100</v>
       </c>
@@ -3069,7 +3118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>200</v>
       </c>
@@ -3077,7 +3126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>300</v>
       </c>
@@ -3085,7 +3134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>400</v>
       </c>
@@ -3093,7 +3142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>500</v>
       </c>
@@ -3101,7 +3150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>600</v>
       </c>
@@ -3109,7 +3158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>700</v>
       </c>
@@ -3117,7 +3166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>800</v>
       </c>
@@ -3125,7 +3174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>900</v>
       </c>
@@ -3133,7 +3182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>1000</v>
       </c>
@@ -3141,7 +3190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>2000</v>
       </c>
@@ -3149,7 +3198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>3000</v>
       </c>
@@ -3157,7 +3206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>4000</v>
       </c>
@@ -3165,7 +3214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>5000</v>
       </c>
@@ -3173,7 +3222,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>6000</v>
       </c>
@@ -3181,7 +3230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>7000</v>
       </c>
@@ -3189,7 +3238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>8000</v>
       </c>
@@ -3197,7 +3246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>9000</v>
       </c>
@@ -3205,7 +3254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3">
       <c r="B68">
         <f>1000000</f>
         <v>1000000</v>
@@ -3214,7 +3263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3">
       <c r="B69">
         <f>1000000000</f>
         <v>1000000000</v>
@@ -3223,7 +3272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3">
       <c r="B70">
         <f>1000000000000</f>
         <v>1000000000000</v>
@@ -3232,7 +3281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3">
       <c r="B71">
         <f>1000000000000000</f>
         <v>1000000000000000</v>
@@ -3252,11 +3301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.21875" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
@@ -3270,7 +3319,7 @@
     <col min="12" max="12" width="15.21875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" customWidth="1"/>
     <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -3283,7 +3332,7 @@
     <col min="33" max="33" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" s="10" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:34" s="10" customFormat="1" ht="19.8">
       <c r="B1" s="11" t="s">
         <v>175</v>
       </c>
@@ -3295,7 +3344,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34">
       <c r="B2" s="5" t="s">
         <v>153</v>
       </c>
@@ -3309,7 +3358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34">
       <c r="B3" s="5"/>
       <c r="F3" s="1">
         <v>0.33333333333333331</v>
@@ -3332,7 +3381,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="2:34" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34" s="8" customFormat="1">
       <c r="C4" s="8" t="s">
         <v>103</v>
       </c>
@@ -3374,7 +3423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34">
       <c r="B5" s="3" t="s">
         <v>129</v>
       </c>
@@ -3487,7 +3536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34">
       <c r="B6" s="3" t="s">
         <v>130</v>
       </c>
@@ -3600,7 +3649,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34">
       <c r="B7" s="3" t="s">
         <v>131</v>
       </c>
@@ -3713,7 +3762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34">
       <c r="B8" s="3" t="s">
         <v>132</v>
       </c>
@@ -3826,7 +3875,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34">
       <c r="B9" s="3" t="s">
         <v>133</v>
       </c>
@@ -3939,7 +3988,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34">
       <c r="B10" s="4" t="s">
         <v>134</v>
       </c>
@@ -4052,7 +4101,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34">
       <c r="B11" s="3" t="s">
         <v>135</v>
       </c>
@@ -4082,8 +4131,11 @@
         <v>3.8055555555547471</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
       <c r="Q11">
         <v>1231</v>
       </c>
@@ -4147,7 +4199,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34">
       <c r="B12" s="3" t="s">
         <v>136</v>
       </c>
@@ -4178,10 +4230,13 @@
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
       <c r="Q12">
         <v>1232</v>
       </c>
@@ -4245,7 +4300,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34">
       <c r="B13" s="3" t="s">
         <v>137</v>
       </c>
@@ -4275,19 +4330,7 @@
         <v>4.5180555555562023</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="K13" s="20" t="s">
         <v>194</v>
       </c>
       <c r="Q13">
@@ -4353,7 +4396,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:34">
       <c r="B14" s="3" t="s">
         <v>138</v>
       </c>
@@ -4383,11 +4426,22 @@
         <v>20.057638888887595</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="K14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23" t="s">
+        <v>188</v>
+      </c>
       <c r="Q14">
         <v>1234</v>
       </c>
@@ -4451,7 +4505,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:34">
       <c r="B15" s="3" t="s">
         <v>139</v>
       </c>
@@ -4481,11 +4535,14 @@
         <v>5.6847222222204437</v>
       </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="K15" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
       <c r="Q15">
         <v>1235</v>
       </c>
@@ -4549,7 +4606,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34">
       <c r="B16" s="3" t="s">
         <v>140</v>
       </c>
@@ -4580,10 +4637,13 @@
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16">
         <v>1236</v>
       </c>
@@ -4647,7 +4707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:34">
       <c r="B17" s="3" t="s">
         <v>141</v>
       </c>
@@ -4677,11 +4737,14 @@
         <v>7.109722222223354</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="K17" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17">
         <v>1237</v>
       </c>
@@ -4721,7 +4784,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:34">
       <c r="B18" s="3" t="s">
         <v>142</v>
       </c>
@@ -4752,12 +4815,12 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:34">
       <c r="B19" s="3" t="s">
         <v>143</v>
       </c>
@@ -4788,12 +4851,12 @@
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:34">
       <c r="B20" s="3" t="s">
         <v>144</v>
       </c>
@@ -4824,12 +4887,12 @@
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:34">
       <c r="B21" s="3" t="s">
         <v>145</v>
       </c>
@@ -4860,12 +4923,12 @@
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:34">
       <c r="B22" s="3" t="s">
         <v>146</v>
       </c>
@@ -4896,12 +4959,12 @@
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:34">
       <c r="B23" s="3" t="s">
         <v>147</v>
       </c>
@@ -4931,13 +4994,10 @@
         <v>10.306944444440887</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:34">
       <c r="B24" s="3" t="s">
         <v>148</v>
       </c>
@@ -4967,13 +5027,10 @@
         <v>25.441666666665697</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:34">
       <c r="B25" s="3" t="s">
         <v>149</v>
       </c>
@@ -5006,7 +5063,7 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:34">
       <c r="B26" s="3" t="s">
         <v>150</v>
       </c>
@@ -5039,7 +5096,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:34">
       <c r="B27" s="4" t="s">
         <v>151</v>
       </c>
@@ -5072,12 +5129,12 @@
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:34">
       <c r="B28" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="2">
         <v>44917</v>
@@ -5123,7 +5180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
